--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.24453389530925</v>
+        <v>8.426422666666666</v>
       </c>
       <c r="H2">
-        <v>5.24453389530925</v>
+        <v>25.279268</v>
       </c>
       <c r="I2">
-        <v>0.08069544677478313</v>
+        <v>0.1151758588783328</v>
       </c>
       <c r="J2">
-        <v>0.08069544677478313</v>
+        <v>0.1151758588783328</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.57223744093043</v>
+        <v>5.864463</v>
       </c>
       <c r="N2">
-        <v>3.57223744093043</v>
+        <v>17.593389</v>
       </c>
       <c r="O2">
-        <v>0.5083587306724484</v>
+        <v>0.6069167733108516</v>
       </c>
       <c r="P2">
-        <v>0.5083587306724484</v>
+        <v>0.6069167733108515</v>
       </c>
       <c r="Q2">
-        <v>18.73472034105242</v>
+        <v>49.41644395102799</v>
       </c>
       <c r="R2">
-        <v>18.73472034105242</v>
+        <v>444.7479955592519</v>
       </c>
       <c r="S2">
-        <v>0.04102223489347488</v>
+        <v>0.06990216063374373</v>
       </c>
       <c r="T2">
-        <v>0.04102223489347488</v>
+        <v>0.06990216063374372</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.24453389530925</v>
+        <v>8.426422666666666</v>
       </c>
       <c r="H3">
-        <v>5.24453389530925</v>
+        <v>25.279268</v>
       </c>
       <c r="I3">
-        <v>0.08069544677478313</v>
+        <v>0.1151758588783328</v>
       </c>
       <c r="J3">
-        <v>0.08069544677478313</v>
+        <v>0.1151758588783328</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.69082523594717</v>
+        <v>2.691504</v>
       </c>
       <c r="N3">
-        <v>2.69082523594717</v>
+        <v>8.074512</v>
       </c>
       <c r="O3">
-        <v>0.3829265338675832</v>
+        <v>0.278545354115671</v>
       </c>
       <c r="P3">
-        <v>0.3829265338675832</v>
+        <v>0.278545354115671</v>
       </c>
       <c r="Q3">
-        <v>14.11212415627844</v>
+        <v>22.679750313024</v>
       </c>
       <c r="R3">
-        <v>14.11212415627844</v>
+        <v>204.117752817216</v>
       </c>
       <c r="S3">
-        <v>0.03090042773236375</v>
+        <v>0.03208170039684176</v>
       </c>
       <c r="T3">
-        <v>0.03090042773236375</v>
+        <v>0.03208170039684176</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.24453389530925</v>
+        <v>8.426422666666666</v>
       </c>
       <c r="H4">
-        <v>5.24453389530925</v>
+        <v>25.279268</v>
       </c>
       <c r="I4">
-        <v>0.08069544677478313</v>
+        <v>0.1151758588783328</v>
       </c>
       <c r="J4">
-        <v>0.08069544677478313</v>
+        <v>0.1151758588783328</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.763938583049881</v>
+        <v>1.106746666666667</v>
       </c>
       <c r="N4">
-        <v>0.763938583049881</v>
+        <v>3.32024</v>
       </c>
       <c r="O4">
-        <v>0.1087147354599684</v>
+        <v>0.1145378725734776</v>
       </c>
       <c r="P4">
-        <v>0.1087147354599684</v>
+        <v>0.1145378725734776</v>
       </c>
       <c r="Q4">
-        <v>4.006501792739622</v>
+        <v>9.325915198257777</v>
       </c>
       <c r="R4">
-        <v>4.006501792739622</v>
+        <v>83.93323678432</v>
       </c>
       <c r="S4">
-        <v>0.008772784148944512</v>
+        <v>0.01319199784774732</v>
       </c>
       <c r="T4">
-        <v>0.008772784148944512</v>
+        <v>0.01319199784774731</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.5386694558981</v>
+        <v>11.78712033333333</v>
       </c>
       <c r="H5">
-        <v>11.5386694558981</v>
+        <v>35.361361</v>
       </c>
       <c r="I5">
-        <v>0.1775406748277554</v>
+        <v>0.1611112760180311</v>
       </c>
       <c r="J5">
-        <v>0.1775406748277554</v>
+        <v>0.1611112760180311</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.57223744093043</v>
+        <v>5.864463</v>
       </c>
       <c r="N5">
-        <v>3.57223744093043</v>
+        <v>17.593389</v>
       </c>
       <c r="O5">
-        <v>0.5083587306724484</v>
+        <v>0.6069167733108516</v>
       </c>
       <c r="P5">
-        <v>0.5083587306724484</v>
+        <v>0.6069167733108515</v>
       </c>
       <c r="Q5">
-        <v>41.21886704887955</v>
+        <v>69.12513107138101</v>
       </c>
       <c r="R5">
-        <v>41.21886704887955</v>
+        <v>622.126179642429</v>
       </c>
       <c r="S5">
-        <v>0.09025435209816764</v>
+        <v>0.09778113578485743</v>
       </c>
       <c r="T5">
-        <v>0.09025435209816764</v>
+        <v>0.09778113578485742</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>11.5386694558981</v>
+        <v>11.78712033333333</v>
       </c>
       <c r="H6">
-        <v>11.5386694558981</v>
+        <v>35.361361</v>
       </c>
       <c r="I6">
-        <v>0.1775406748277554</v>
+        <v>0.1611112760180311</v>
       </c>
       <c r="J6">
-        <v>0.1775406748277554</v>
+        <v>0.1611112760180311</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.69082523594717</v>
+        <v>2.691504</v>
       </c>
       <c r="N6">
-        <v>2.69082523594717</v>
+        <v>8.074512</v>
       </c>
       <c r="O6">
-        <v>0.3829265338675832</v>
+        <v>0.278545354115671</v>
       </c>
       <c r="P6">
-        <v>0.3829265338675832</v>
+        <v>0.278545354115671</v>
       </c>
       <c r="Q6">
-        <v>31.04854296118341</v>
+        <v>31.725081525648</v>
       </c>
       <c r="R6">
-        <v>31.04854296118341</v>
+        <v>285.525733730832</v>
       </c>
       <c r="S6">
-        <v>0.06798503523230404</v>
+        <v>0.04487679743047009</v>
       </c>
       <c r="T6">
-        <v>0.06798503523230404</v>
+        <v>0.04487679743047009</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.5386694558981</v>
+        <v>11.78712033333333</v>
       </c>
       <c r="H7">
-        <v>11.5386694558981</v>
+        <v>35.361361</v>
       </c>
       <c r="I7">
-        <v>0.1775406748277554</v>
+        <v>0.1611112760180311</v>
       </c>
       <c r="J7">
-        <v>0.1775406748277554</v>
+        <v>0.1611112760180311</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.763938583049881</v>
+        <v>1.106746666666667</v>
       </c>
       <c r="N7">
-        <v>0.763938583049881</v>
+        <v>3.32024</v>
       </c>
       <c r="O7">
-        <v>0.1087147354599684</v>
+        <v>0.1145378725734776</v>
       </c>
       <c r="P7">
-        <v>0.1087147354599684</v>
+        <v>0.1145378725734776</v>
       </c>
       <c r="Q7">
-        <v>8.814834794419736</v>
+        <v>13.04535613851556</v>
       </c>
       <c r="R7">
-        <v>8.814834794419736</v>
+        <v>117.40820524664</v>
       </c>
       <c r="S7">
-        <v>0.0193012874972837</v>
+        <v>0.01845334280270362</v>
       </c>
       <c r="T7">
-        <v>0.0193012874972837</v>
+        <v>0.01845334280270362</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>48.2084920284152</v>
+        <v>52.94781866666667</v>
       </c>
       <c r="H8">
-        <v>48.2084920284152</v>
+        <v>158.843456</v>
       </c>
       <c r="I8">
-        <v>0.7417638783974614</v>
+        <v>0.7237128651036362</v>
       </c>
       <c r="J8">
-        <v>0.7417638783974614</v>
+        <v>0.7237128651036362</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.57223744093043</v>
+        <v>5.864463</v>
       </c>
       <c r="N8">
-        <v>3.57223744093043</v>
+        <v>17.593389</v>
       </c>
       <c r="O8">
-        <v>0.5083587306724484</v>
+        <v>0.6069167733108516</v>
       </c>
       <c r="P8">
-        <v>0.5083587306724484</v>
+        <v>0.6069167733108515</v>
       </c>
       <c r="Q8">
-        <v>172.2121801947009</v>
+        <v>310.510523501376</v>
       </c>
       <c r="R8">
-        <v>172.2121801947009</v>
+        <v>2794.594711512384</v>
       </c>
       <c r="S8">
-        <v>0.3770821436808058</v>
+        <v>0.4392334768922505</v>
       </c>
       <c r="T8">
-        <v>0.3770821436808058</v>
+        <v>0.4392334768922504</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>48.2084920284152</v>
+        <v>52.94781866666667</v>
       </c>
       <c r="H9">
-        <v>48.2084920284152</v>
+        <v>158.843456</v>
       </c>
       <c r="I9">
-        <v>0.7417638783974614</v>
+        <v>0.7237128651036362</v>
       </c>
       <c r="J9">
-        <v>0.7417638783974614</v>
+        <v>0.7237128651036362</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.69082523594717</v>
+        <v>2.691504</v>
       </c>
       <c r="N9">
-        <v>2.69082523594717</v>
+        <v>8.074512</v>
       </c>
       <c r="O9">
-        <v>0.3829265338675832</v>
+        <v>0.278545354115671</v>
       </c>
       <c r="P9">
-        <v>0.3829265338675832</v>
+        <v>0.278545354115671</v>
       </c>
       <c r="Q9">
-        <v>129.7206269370176</v>
+        <v>142.509265732608</v>
       </c>
       <c r="R9">
-        <v>129.7206269370176</v>
+        <v>1282.583391593472</v>
       </c>
       <c r="S9">
-        <v>0.2840410709029154</v>
+        <v>0.2015868562883592</v>
       </c>
       <c r="T9">
-        <v>0.2840410709029154</v>
+        <v>0.2015868562883592</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>48.2084920284152</v>
+        <v>52.94781866666667</v>
       </c>
       <c r="H10">
-        <v>48.2084920284152</v>
+        <v>158.843456</v>
       </c>
       <c r="I10">
-        <v>0.7417638783974614</v>
+        <v>0.7237128651036362</v>
       </c>
       <c r="J10">
-        <v>0.7417638783974614</v>
+        <v>0.7237128651036362</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.763938583049881</v>
+        <v>1.106746666666667</v>
       </c>
       <c r="N10">
-        <v>0.763938583049881</v>
+        <v>3.32024</v>
       </c>
       <c r="O10">
-        <v>0.1087147354599684</v>
+        <v>0.1145378725734776</v>
       </c>
       <c r="P10">
-        <v>0.1087147354599684</v>
+        <v>0.1145378725734776</v>
       </c>
       <c r="Q10">
-        <v>36.828327091159</v>
+        <v>58.59982181660445</v>
       </c>
       <c r="R10">
-        <v>36.828327091159</v>
+        <v>527.3983963494401</v>
       </c>
       <c r="S10">
-        <v>0.08064066381374022</v>
+        <v>0.08289253192302665</v>
       </c>
       <c r="T10">
-        <v>0.08064066381374022</v>
+        <v>0.08289253192302663</v>
       </c>
     </row>
   </sheetData>
